--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ebi3-Il27ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>Il27ra</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H2">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I2">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J2">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.899454</v>
+        <v>1.4687815</v>
       </c>
       <c r="N2">
-        <v>3.798908</v>
+        <v>2.937563</v>
       </c>
       <c r="O2">
-        <v>0.4692036141039673</v>
+        <v>0.5884076071977216</v>
       </c>
       <c r="P2">
-        <v>0.3739095189885477</v>
+        <v>0.5122983854793947</v>
       </c>
       <c r="Q2">
-        <v>10.24372629703867</v>
+        <v>0.29769630637375</v>
       </c>
       <c r="R2">
-        <v>61.46235778223199</v>
+        <v>1.190785225495</v>
       </c>
       <c r="S2">
-        <v>0.1740541952066516</v>
+        <v>0.006436855034586722</v>
       </c>
       <c r="T2">
-        <v>0.1387042180652026</v>
+        <v>0.003749848480126432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H3">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I3">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J3">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.539281</v>
       </c>
       <c r="O3">
-        <v>0.1267445290982863</v>
+        <v>0.205550122105731</v>
       </c>
       <c r="P3">
-        <v>0.1515045424364609</v>
+        <v>0.268444003107034</v>
       </c>
       <c r="Q3">
-        <v>2.767106276897111</v>
+        <v>0.1039951070941667</v>
       </c>
       <c r="R3">
-        <v>24.90395649207399</v>
+        <v>0.6239706425649999</v>
       </c>
       <c r="S3">
-        <v>0.04701672439411357</v>
+        <v>0.00224860508625544</v>
       </c>
       <c r="T3">
-        <v>0.05620161569788559</v>
+        <v>0.001964918035234476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H4">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I4">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J4">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1162836666666667</v>
+        <v>0.1926626666666666</v>
       </c>
       <c r="N4">
-        <v>0.348851</v>
+        <v>0.5779879999999999</v>
       </c>
       <c r="O4">
-        <v>0.02872442115537467</v>
+        <v>0.07718246634347284</v>
       </c>
       <c r="P4">
-        <v>0.03433584324986914</v>
+        <v>0.100798627715036</v>
       </c>
       <c r="Q4">
-        <v>0.6271160313171111</v>
+        <v>0.03904935093666666</v>
       </c>
       <c r="R4">
-        <v>5.644044281854</v>
+        <v>0.23429610562</v>
       </c>
       <c r="S4">
-        <v>0.0106555146991426</v>
+        <v>0.0008443336574638477</v>
       </c>
       <c r="T4">
-        <v>0.01273710897349028</v>
+        <v>0.0007378113842431009</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H5">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I5">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J5">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08533300000000001</v>
+        <v>0.2857245</v>
       </c>
       <c r="N5">
-        <v>0.170666</v>
+        <v>0.571449</v>
       </c>
       <c r="O5">
-        <v>0.02107897953955918</v>
+        <v>0.1144639072338298</v>
       </c>
       <c r="P5">
-        <v>0.01679789085908358</v>
+        <v>0.09965825416640071</v>
       </c>
       <c r="Q5">
-        <v>0.4601995605606666</v>
+        <v>0.05791135597124999</v>
       </c>
       <c r="R5">
-        <v>2.761197363364</v>
+        <v>0.231645423885</v>
       </c>
       <c r="S5">
-        <v>0.007819387381620822</v>
+        <v>0.001252172080278635</v>
       </c>
       <c r="T5">
-        <v>0.006231289117903323</v>
+        <v>0.0007294642409779022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,76 +776,76 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.392984666666666</v>
+        <v>0.2026825</v>
       </c>
       <c r="H6">
-        <v>16.178954</v>
+        <v>0.405365</v>
       </c>
       <c r="I6">
-        <v>0.3709566379599203</v>
+        <v>0.0109394490415277</v>
       </c>
       <c r="J6">
-        <v>0.3709566379599202</v>
+        <v>0.007319657032722107</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.090236333333333</v>
+        <v>0.035935</v>
       </c>
       <c r="N6">
-        <v>3.270709</v>
+        <v>0.107805</v>
       </c>
       <c r="O6">
-        <v>0.2693104585988698</v>
+        <v>0.01439589711924485</v>
       </c>
       <c r="P6">
-        <v>0.3219212544608909</v>
+        <v>0.01880072953213468</v>
       </c>
       <c r="Q6">
-        <v>5.879627828709555</v>
+        <v>0.0072833956375</v>
       </c>
       <c r="R6">
-        <v>52.91665045838599</v>
+        <v>0.043700373825</v>
       </c>
       <c r="S6">
-        <v>0.09990250228928105</v>
+        <v>0.0001574831829430544</v>
       </c>
       <c r="T6">
-        <v>0.1194188262426521</v>
+        <v>0.0001376148921401958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.392984666666666</v>
+        <v>3.262457</v>
       </c>
       <c r="H7">
-        <v>16.178954</v>
+        <v>9.787371</v>
       </c>
       <c r="I7">
-        <v>0.3709566379599203</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J7">
-        <v>0.3709566379599202</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3438503333333334</v>
+        <v>1.4687815</v>
       </c>
       <c r="N7">
-        <v>1.031551</v>
+        <v>2.937563</v>
       </c>
       <c r="O7">
-        <v>0.08493799750394265</v>
+        <v>0.5884076071977216</v>
       </c>
       <c r="P7">
-        <v>0.1015309500051477</v>
+        <v>0.5122983854793947</v>
       </c>
       <c r="Q7">
-        <v>1.854379575294889</v>
+        <v>4.7918364861455</v>
       </c>
       <c r="R7">
-        <v>16.689416177654</v>
+        <v>28.751018916873</v>
       </c>
       <c r="S7">
-        <v>0.03150831398911066</v>
+        <v>0.1036101427877231</v>
       </c>
       <c r="T7">
-        <v>0.03766357986278632</v>
+        <v>0.09053854740489072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H8">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I8">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J8">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.899454</v>
+        <v>0.5130936666666667</v>
       </c>
       <c r="N8">
-        <v>3.798908</v>
+        <v>1.539281</v>
       </c>
       <c r="O8">
-        <v>0.4692036141039673</v>
+        <v>0.205550122105731</v>
       </c>
       <c r="P8">
-        <v>0.3739095189885477</v>
+        <v>0.268444003107034</v>
       </c>
       <c r="Q8">
-        <v>17.37062332984533</v>
+        <v>1.673946024472333</v>
       </c>
       <c r="R8">
-        <v>104.223739979072</v>
+        <v>15.065514220251</v>
       </c>
       <c r="S8">
-        <v>0.2951494188973158</v>
+        <v>0.03619442923730299</v>
       </c>
       <c r="T8">
-        <v>0.2352053009233451</v>
+        <v>0.04744213682836677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H9">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I9">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J9">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5130936666666667</v>
+        <v>0.1926626666666666</v>
       </c>
       <c r="N9">
-        <v>1.539281</v>
+        <v>0.5779879999999999</v>
       </c>
       <c r="O9">
-        <v>0.1267445290982863</v>
+        <v>0.07718246634347284</v>
       </c>
       <c r="P9">
-        <v>0.1515045424364609</v>
+        <v>0.100798627715036</v>
       </c>
       <c r="Q9">
-        <v>4.692273051411555</v>
+        <v>0.6285536655053333</v>
       </c>
       <c r="R9">
-        <v>42.230457462704</v>
+        <v>5.656982989547999</v>
       </c>
       <c r="S9">
-        <v>0.07972780470417273</v>
+        <v>0.01359072564789033</v>
       </c>
       <c r="T9">
-        <v>0.09530292673857531</v>
+        <v>0.01781415204966088</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H10">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I10">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J10">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1162836666666667</v>
+        <v>0.2857245</v>
       </c>
       <c r="N10">
-        <v>0.348851</v>
+        <v>0.571449</v>
       </c>
       <c r="O10">
-        <v>0.02872442115537467</v>
+        <v>0.1144639072338298</v>
       </c>
       <c r="P10">
-        <v>0.03433584324986914</v>
+        <v>0.09965825416640071</v>
       </c>
       <c r="Q10">
-        <v>1.063421263731555</v>
+        <v>0.9321638950965</v>
       </c>
       <c r="R10">
-        <v>9.570791373584001</v>
+        <v>5.592983370579</v>
       </c>
       <c r="S10">
-        <v>0.01806890645623208</v>
+        <v>0.0201554528314462</v>
       </c>
       <c r="T10">
-        <v>0.02159873427637887</v>
+        <v>0.01761261371278757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,14 +1086,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,60 +1101,60 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.145061333333333</v>
+        <v>3.262457</v>
       </c>
       <c r="H11">
-        <v>27.435184</v>
+        <v>9.787371</v>
       </c>
       <c r="I11">
-        <v>0.6290433620400798</v>
+        <v>0.176085661572535</v>
       </c>
       <c r="J11">
-        <v>0.6290433620400798</v>
+        <v>0.1767301048980805</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.08533300000000001</v>
+        <v>0.035935</v>
       </c>
       <c r="N11">
-        <v>0.170666</v>
+        <v>0.107805</v>
       </c>
       <c r="O11">
-        <v>0.02107897953955918</v>
+        <v>0.01439589711924485</v>
       </c>
       <c r="P11">
-        <v>0.01679789085908358</v>
+        <v>0.01880072953213468</v>
       </c>
       <c r="Q11">
-        <v>0.7803755187573334</v>
+        <v>0.117236392295</v>
       </c>
       <c r="R11">
-        <v>4.682253112544</v>
+        <v>1.055127530655</v>
       </c>
       <c r="S11">
-        <v>0.01325959215793836</v>
+        <v>0.00253491106817238</v>
       </c>
       <c r="T11">
-        <v>0.01056660174118026</v>
+        <v>0.003322654902374602</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,108 +1163,604 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.145061333333333</v>
+        <v>12.57386233333333</v>
       </c>
       <c r="H12">
-        <v>27.435184</v>
+        <v>37.721587</v>
       </c>
       <c r="I12">
-        <v>0.6290433620400798</v>
+        <v>0.6786531952718392</v>
       </c>
       <c r="J12">
-        <v>0.6290433620400798</v>
+        <v>0.6811369495886148</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.090236333333333</v>
+        <v>1.4687815</v>
       </c>
       <c r="N12">
-        <v>3.270709</v>
+        <v>2.937563</v>
       </c>
       <c r="O12">
-        <v>0.2693104585988698</v>
+        <v>0.5884076071977216</v>
       </c>
       <c r="P12">
-        <v>0.3219212544608909</v>
+        <v>0.5122983854793947</v>
       </c>
       <c r="Q12">
-        <v>9.970278136161777</v>
+        <v>18.46825637874683</v>
       </c>
       <c r="R12">
-        <v>89.732503225456</v>
+        <v>110.809538272481</v>
       </c>
       <c r="S12">
-        <v>0.1694079563095888</v>
+        <v>0.399324702746991</v>
       </c>
       <c r="T12">
-        <v>0.2025024282182388</v>
+        <v>0.3489453595646072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H13">
+        <v>37.721587</v>
+      </c>
+      <c r="I13">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J13">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5130936666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.539281</v>
+      </c>
+      <c r="O13">
+        <v>0.205550122105731</v>
+      </c>
+      <c r="P13">
+        <v>0.268444003107034</v>
+      </c>
+      <c r="Q13">
+        <v>6.451569128771888</v>
+      </c>
+      <c r="R13">
+        <v>58.06412215894699</v>
+      </c>
+      <c r="S13">
+        <v>0.139497247155571</v>
+      </c>
+      <c r="T13">
+        <v>0.1828471294116818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H14">
+        <v>37.721587</v>
+      </c>
+      <c r="I14">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J14">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1926626666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.5779879999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.07718246634347284</v>
+      </c>
+      <c r="P14">
+        <v>0.100798627715036</v>
+      </c>
+      <c r="Q14">
+        <v>2.422513847439555</v>
+      </c>
+      <c r="R14">
+        <v>21.802624626956</v>
+      </c>
+      <c r="S14">
+        <v>0.05238012740295903</v>
+      </c>
+      <c r="T14">
+        <v>0.06865766980453804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H15">
+        <v>37.721587</v>
+      </c>
+      <c r="I15">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J15">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2857245</v>
+      </c>
+      <c r="N15">
+        <v>0.571449</v>
+      </c>
+      <c r="O15">
+        <v>0.1144639072338298</v>
+      </c>
+      <c r="P15">
+        <v>0.09965825416640071</v>
+      </c>
+      <c r="Q15">
+        <v>3.5926605282605</v>
+      </c>
+      <c r="R15">
+        <v>21.555963169563</v>
+      </c>
+      <c r="S15">
+        <v>0.07768129638753798</v>
+      </c>
+      <c r="T15">
+        <v>0.06788091924422905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.57386233333333</v>
+      </c>
+      <c r="H16">
+        <v>37.721587</v>
+      </c>
+      <c r="I16">
+        <v>0.6786531952718392</v>
+      </c>
+      <c r="J16">
+        <v>0.6811369495886148</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.035935</v>
+      </c>
+      <c r="N16">
+        <v>0.107805</v>
+      </c>
+      <c r="O16">
+        <v>0.01439589711924485</v>
+      </c>
+      <c r="P16">
+        <v>0.01880072953213468</v>
+      </c>
+      <c r="Q16">
+        <v>0.4518417429483333</v>
+      </c>
+      <c r="R16">
+        <v>4.066575686535</v>
+      </c>
+      <c r="S16">
+        <v>0.00976982157878018</v>
+      </c>
+      <c r="T16">
+        <v>0.0128058715635588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.488668</v>
+      </c>
+      <c r="H17">
+        <v>7.466004</v>
+      </c>
+      <c r="I17">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J17">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.4687815</v>
+      </c>
+      <c r="N17">
+        <v>2.937563</v>
+      </c>
+      <c r="O17">
+        <v>0.5884076071977216</v>
+      </c>
+      <c r="P17">
+        <v>0.5122983854793947</v>
+      </c>
+      <c r="Q17">
+        <v>3.655309518042</v>
+      </c>
+      <c r="R17">
+        <v>21.931857108252</v>
+      </c>
+      <c r="S17">
+        <v>0.07903590662842065</v>
+      </c>
+      <c r="T17">
+        <v>0.06906463002977037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.488668</v>
+      </c>
+      <c r="H18">
+        <v>7.466004</v>
+      </c>
+      <c r="I18">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J18">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5130936666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.539281</v>
+      </c>
+      <c r="O18">
+        <v>0.205550122105731</v>
+      </c>
+      <c r="P18">
+        <v>0.268444003107034</v>
+      </c>
+      <c r="Q18">
+        <v>1.276919789236</v>
+      </c>
+      <c r="R18">
+        <v>11.492278103124</v>
+      </c>
+      <c r="S18">
+        <v>0.02760984062660148</v>
+      </c>
+      <c r="T18">
+        <v>0.036189818831751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.145061333333333</v>
-      </c>
-      <c r="H13">
-        <v>27.435184</v>
-      </c>
-      <c r="I13">
-        <v>0.6290433620400798</v>
-      </c>
-      <c r="J13">
-        <v>0.6290433620400798</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3438503333333334</v>
-      </c>
-      <c r="N13">
-        <v>1.031551</v>
-      </c>
-      <c r="O13">
-        <v>0.08493799750394265</v>
-      </c>
-      <c r="P13">
-        <v>0.1015309500051477</v>
-      </c>
-      <c r="Q13">
-        <v>3.144532387820445</v>
-      </c>
-      <c r="R13">
-        <v>28.300791490384</v>
-      </c>
-      <c r="S13">
-        <v>0.053429683514832</v>
-      </c>
-      <c r="T13">
-        <v>0.06386737014236134</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.488668</v>
+      </c>
+      <c r="H19">
+        <v>7.466004</v>
+      </c>
+      <c r="I19">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J19">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1926626666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.5779879999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.07718246634347284</v>
+      </c>
+      <c r="P19">
+        <v>0.100798627715036</v>
+      </c>
+      <c r="Q19">
+        <v>0.479473413328</v>
+      </c>
+      <c r="R19">
+        <v>4.315260719952</v>
+      </c>
+      <c r="S19">
+        <v>0.01036727963515962</v>
+      </c>
+      <c r="T19">
+        <v>0.01358899447659401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.488668</v>
+      </c>
+      <c r="H20">
+        <v>7.466004</v>
+      </c>
+      <c r="I20">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J20">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.2857245</v>
+      </c>
+      <c r="N20">
+        <v>0.571449</v>
+      </c>
+      <c r="O20">
+        <v>0.1144639072338298</v>
+      </c>
+      <c r="P20">
+        <v>0.09965825416640071</v>
+      </c>
+      <c r="Q20">
+        <v>0.711073419966</v>
+      </c>
+      <c r="R20">
+        <v>4.266440519795999</v>
+      </c>
+      <c r="S20">
+        <v>0.01537498593456697</v>
+      </c>
+      <c r="T20">
+        <v>0.01343525696840621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.488668</v>
+      </c>
+      <c r="H21">
+        <v>7.466004</v>
+      </c>
+      <c r="I21">
+        <v>0.1343216941140979</v>
+      </c>
+      <c r="J21">
+        <v>0.1348132884805827</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.035935</v>
+      </c>
+      <c r="N21">
+        <v>0.107805</v>
+      </c>
+      <c r="O21">
+        <v>0.01439589711924485</v>
+      </c>
+      <c r="P21">
+        <v>0.01880072953213468</v>
+      </c>
+      <c r="Q21">
+        <v>0.08943028458000001</v>
+      </c>
+      <c r="R21">
+        <v>0.8048725612199999</v>
+      </c>
+      <c r="S21">
+        <v>0.00193368128934923</v>
+      </c>
+      <c r="T21">
+        <v>0.002534588174061082</v>
       </c>
     </row>
   </sheetData>
